--- a/game_default_currency_denom.xlsx
+++ b/game_default_currency_denom.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam_liaw\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{682D2C8F-3ED4-428B-827C-329D905271D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE69C2DF-4634-40A4-9D85-ACE3ECFE4BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15060"/>
   </bookViews>
   <sheets>
-    <sheet name="UAT_game_default_currency_denom" sheetId="1" r:id="rId1"/>
+    <sheet name="game_default_currency_denom" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="215" uniqueCount="160">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="215" uniqueCount="154">
   <si>
     <t>Currency</t>
   </si>
@@ -90,13 +90,13 @@
     <t>CAD2</t>
   </si>
   <si>
-    <t>28,27,26,25,24,23</t>
+    <t>15,23,24,25,26,27,28</t>
   </si>
   <si>
     <t>CHF</t>
   </si>
   <si>
-    <t>24,23,22,21,20,19,18,17,16</t>
+    <t>15,16,17,18,19,20,21,22,23,24</t>
   </si>
   <si>
     <t>CHF2</t>
@@ -114,7 +114,7 @@
     <t>CNY2</t>
   </si>
   <si>
-    <t>28,27,26,25,24,23,22,21</t>
+    <t>15,21,22,23,24,25,26,27,28</t>
   </si>
   <si>
     <t>COP</t>
@@ -147,9 +147,6 @@
     <t>EUR2</t>
   </si>
   <si>
-    <t>15,23,24,25,26,27,28</t>
-  </si>
-  <si>
     <t>GBP</t>
   </si>
   <si>
@@ -186,7 +183,7 @@
     <t>IDR</t>
   </si>
   <si>
-    <t>11,10,9,8,6,5,4,3,1</t>
+    <t>1,3,4,5,6,8,9,10,11,15</t>
   </si>
   <si>
     <t>IDR2</t>
@@ -210,7 +207,7 @@
     <t>INR2</t>
   </si>
   <si>
-    <t>27,26,25,24,23,22,21,20,19</t>
+    <t>15,19,20,21,22,23,24,25,26,27</t>
   </si>
   <si>
     <t>IRR</t>
@@ -228,7 +225,7 @@
     <t>JPY2</t>
   </si>
   <si>
-    <t>27,26,25,24,23,22,21,20,19,18</t>
+    <t>15,18,19,20,21,22,23,24,25,26,27</t>
   </si>
   <si>
     <t>KBB</t>
@@ -240,16 +237,13 @@
     <t>KES</t>
   </si>
   <si>
-    <t>13,12,11,10,9</t>
-  </si>
-  <si>
     <t>KGS</t>
   </si>
   <si>
     <t>KHR</t>
   </si>
   <si>
-    <t>13,12,11,10,9,8,7</t>
+    <t>7,8,9,10,11,12,13,15</t>
   </si>
   <si>
     <t>KRW</t>
@@ -276,7 +270,7 @@
     <t>LKR</t>
   </si>
   <si>
-    <t>12,11,10,9,8</t>
+    <t>8,9,10,11,12,15</t>
   </si>
   <si>
     <t>MAD</t>
@@ -318,19 +312,16 @@
     <t>MYR2</t>
   </si>
   <si>
-    <t>15,21,22,23,24,25,26,27,28</t>
-  </si>
-  <si>
     <t>NGN</t>
   </si>
   <si>
-    <t>11,10,9,8,7</t>
+    <t>7,8,9,10,11,15</t>
   </si>
   <si>
     <t>NIO</t>
   </si>
   <si>
-    <t>14,13,12,11,10</t>
+    <t>10,11,12,13,14,15</t>
   </si>
   <si>
     <t>NOK</t>
@@ -342,9 +333,6 @@
     <t>NOK2</t>
   </si>
   <si>
-    <t>28,27,26,25,24,23,22</t>
-  </si>
-  <si>
     <t>NPR</t>
   </si>
   <si>
@@ -369,9 +357,6 @@
     <t>PHP2</t>
   </si>
   <si>
-    <t>15,18,19,20,21,22,23,24,25,26,27</t>
-  </si>
-  <si>
     <t>PLN</t>
   </si>
   <si>
@@ -432,7 +417,7 @@
     <t>TZS</t>
   </si>
   <si>
-    <t>9,8,7,6,5</t>
+    <t>5,6,7,8,9,15</t>
   </si>
   <si>
     <t>UAH</t>
@@ -468,7 +453,7 @@
     <t>VND</t>
   </si>
   <si>
-    <t>11,10,9,8,6,7,5,4,3,1</t>
+    <t>1,3,4,5,6,7,8,9,10,11,15</t>
   </si>
   <si>
     <t>VND2</t>
@@ -480,9 +465,6 @@
     <t>XAF</t>
   </si>
   <si>
-    <t>7,8,9,10,11,15</t>
-  </si>
-  <si>
     <t>XOF</t>
   </si>
   <si>
@@ -501,7 +483,7 @@
     <t>ZAR2</t>
   </si>
   <si>
-    <t>28,27,26,25,24,23,22,21,20,19</t>
+    <t>15,19,20,21,22,23,24,25,26,27,28</t>
   </si>
   <si>
     <t>ZMW</t>
@@ -1667,12 +1649,12 @@
         <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
         <v>38</v>
@@ -1680,7 +1662,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
         <v>21</v>
@@ -1688,7 +1670,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
@@ -1696,7 +1678,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
         <v>5</v>
@@ -1704,23 +1686,23 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" t="s">
         <v>45</v>
-      </c>
-      <c r="B31" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" t="s">
         <v>47</v>
-      </c>
-      <c r="B32" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B33" t="s">
         <v>5</v>
@@ -1728,7 +1710,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B34" t="s">
         <v>5</v>
@@ -1736,7 +1718,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B35" t="s">
         <v>5</v>
@@ -1744,23 +1726,23 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" t="s">
         <v>52</v>
-      </c>
-      <c r="B36" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" t="s">
         <v>54</v>
-      </c>
-      <c r="B37" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B38" t="s">
         <v>5</v>
@@ -1768,7 +1750,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B39" t="s">
         <v>5</v>
@@ -1776,31 +1758,31 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" t="s">
         <v>58</v>
-      </c>
-      <c r="B40" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" t="s">
         <v>60</v>
-      </c>
-      <c r="B41" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" t="s">
         <v>62</v>
-      </c>
-      <c r="B42" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B43" t="s">
         <v>5</v>
@@ -1808,39 +1790,39 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>65</v>
+      </c>
+      <c r="B45" t="s">
         <v>66</v>
-      </c>
-      <c r="B45" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>67</v>
+      </c>
+      <c r="B46" t="s">
         <v>68</v>
-      </c>
-      <c r="B46" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B47" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B48" t="s">
         <v>5</v>
@@ -1848,23 +1830,23 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B49" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B50" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B51" t="s">
         <v>38</v>
@@ -1872,31 +1854,31 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B52" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B53" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B54" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B55" t="s">
         <v>5</v>
@@ -1904,7 +1886,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B56" t="s">
         <v>5</v>
@@ -1912,23 +1894,23 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B57" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B58" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B59" t="s">
         <v>5</v>
@@ -1936,7 +1918,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B60" t="s">
         <v>5</v>
@@ -1944,95 +1926,95 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B61" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B62" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B63" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B64" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B65" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B66" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B67" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B68" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B69" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B70" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B71" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B72" t="s">
         <v>3</v>
@@ -2040,7 +2022,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B73">
         <v>15</v>
@@ -2048,15 +2030,15 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B74" t="s">
-        <v>114</v>
+        <v>66</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B75" t="s">
         <v>5</v>
@@ -2064,7 +2046,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B76" t="s">
         <v>5</v>
@@ -2072,7 +2054,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B77" t="s">
         <v>5</v>
@@ -2080,7 +2062,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B78" t="s">
         <v>5</v>
@@ -2088,15 +2070,15 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B79" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B80" t="s">
         <v>5</v>
@@ -2104,7 +2086,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B81" t="s">
         <v>3</v>
@@ -2112,31 +2094,31 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B82" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B84" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B85" t="s">
         <v>21</v>
@@ -2144,23 +2126,23 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B86" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B87" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B88" t="s">
         <v>16</v>
@@ -2168,63 +2150,63 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B89" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B90" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B91" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B92" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B93" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B94" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B95" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B96" t="s">
         <v>5</v>
@@ -2232,7 +2214,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B97" t="s">
         <v>5</v>
@@ -2240,7 +2222,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B98" t="s">
         <v>5</v>
@@ -2248,7 +2230,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B99" t="s">
         <v>5</v>
@@ -2256,23 +2238,23 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B100" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B101" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B102" t="s">
         <v>5</v>
@@ -2280,50 +2262,50 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B103" t="s">
-        <v>151</v>
+        <v>96</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B104" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B105" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B106" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B107" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B108" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
